--- a/xlsx/保险_intext.xlsx
+++ b/xlsx/保险_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>保险</t>
   </si>
@@ -29,7 +29,7 @@
     <t>个人理财</t>
   </si>
   <si>
-    <t>政策_政策_美國_保险</t>
+    <t>政策_政策_美国_保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E4%BF%A1%E7%94%A8</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B8%E7%95%B6</t>
   </si>
   <si>
-    <t>典當</t>
+    <t>典当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>互助會</t>
+    <t>互助会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E4%BA%A7</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>員工福利</t>
+    <t>员工福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E6%80%A7%E5%85%AC%E7%A9%8D%E9%87%91</t>
   </si>
   <si>
-    <t>強制性公積金</t>
+    <t>强制性公积金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91%E9%87%91</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E6%B3%95_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保險法 (中華民國)</t>
+    <t>保险法 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%94%A8</t>
   </si>
   <si>
-    <t>費用</t>
+    <t>费用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>人身保險</t>
+    <t>人身保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E4%BA%A7%E4%BF%9D%E9%99%A9</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%AE%97%E5%AD%B8</t>
   </si>
   <si>
-    <t>精算學</t>
+    <t>精算学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BE%E4%BF%9D%E9%99%A9</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
+    <t>罗德岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8C%BF%E6%88%98%E4%BA%89</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>廣州</t>
+    <t>广州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E5%90%84%E7%AD%94</t>
   </si>
   <si>
-    <t>加爾各答</t>
+    <t>加尔各答</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E7%81%AB</t>
   </si>
   <si>
-    <t>倫敦大火</t>
+    <t>伦敦大火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%9C%83</t>
   </si>
   <si>
-    <t>行會</t>
+    <t>行会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -509,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>广州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E5%95%86%E5%B1%80</t>
   </si>
   <si>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>中國太平洋保險</t>
+    <t>中国太平洋保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B9%B3%E5%AE%89</t>
@@ -617,25 +614,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>健康保險</t>
+    <t>健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>人壽保險</t>
+    <t>人寿保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>再保險</t>
+    <t>再保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%AE%97%E5%B8%AB</t>
   </si>
   <si>
-    <t>精算師</t>
+    <t>精算师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E9%87%91%E4%BB%B7%E5%80%BC</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%9B%A4</t>
   </si>
   <si>
-    <t>清盤</t>
+    <t>清盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E4%BA%A7</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%A8%85</t>
   </si>
   <si>
-    <t>節稅</t>
+    <t>节税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B6%88%E8%B4%B9%E8%80%85%E5%8D%8F%E4%BC%9A</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9%E6%AC%BA%E8%AF%88</t>
@@ -695,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>旅遊保險</t>
+    <t>旅游保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%8F%E6%B5%8E%E7%BD%91</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>醫療保險</t>
+    <t>医疗保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Accidental_death_and_dismemberment_insurance</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E7%85%A7%E9%A1%A7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>長期照顧保險</t>
+    <t>长期照顾保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_health_insurance</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E5%88%B8%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>債券保險</t>
+    <t>债券保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Professional_liability_insurance</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87%E9%9A%AA</t>
   </si>
   <si>
-    <t>地震險</t>
+    <t>地震险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Flood_insurance</t>
@@ -821,13 +818,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>火災保險</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E7%89%A9%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>產物保險</t>
+    <t>产物保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aviation_insurance</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>旅行保險</t>
+    <t>旅行保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%8A%A8%E8%BD%A6%E8%BE%86%E4%BF%9D%E9%99%A9</t>
@@ -911,9 +905,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AC%E4%BB%BB%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>責任保險</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/No-fault_insurance</t>
   </si>
   <si>
@@ -923,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B5%E7%89%A9%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>寵物保險</t>
+    <t>宠物保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terrorism_insurance</t>
@@ -959,19 +950,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>保險契約</t>
+    <t>保险契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>保險法</t>
+    <t>保险法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%99%A9%E4%BE%BF%E5%88%A9%E5%92%8C%E8%B4%A3%E4%BB%BB%E6%B3%95%E6%A1%88</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_insurance</t>
@@ -1013,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E9%87%91%E8%9E%8D%E5%AD%A6</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BF%9D%E9%9A%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>全球保險集團</t>
+    <t>全球保险集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%99%85%E9%9B%86%E5%9B%A2</t>
@@ -1091,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%82%91%E8%8F%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英傑華集團</t>
+    <t>英杰华集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9B%9B</t>
@@ -1103,13 +1094,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%BF%9D%E9%99%A9</t>
   </si>
   <si>
-    <t>中国太平洋保险</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E5%B9%B3%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>中國太平保險</t>
+    <t>中国太平保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ING</t>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BF%9D%E8%AA%A0</t>
   </si>
   <si>
-    <t>英國保誠</t>
+    <t>英国保诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%9C%8D%E5%8A%A1%E6%B1%BD%E8%BD%A6%E5%8D%8F%E4%BC%9A</t>
@@ -1139,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%8B%E5%A4%8F%C2%B7%E5%93%88%E8%96%A9%E5%A8%81%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>波克夏·哈薩威公司</t>
+    <t>波克夏·哈萨威公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%B7%B4%E9%BB%8E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國巴黎銀行</t>
+    <t>法国巴黎银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B5%B7%E4%B8%8A%E7%81%AB%E7%81%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
@@ -1169,25 +1157,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E5%AE%B3%E4%BF%9D%E9%9A%AA%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E</t>
   </si>
   <si>
-    <t>損害保險日本興亞</t>
+    <t>损害保险日本兴亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E9%82%A6%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>友邦保險</t>
+    <t>友邦保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E5%AF%BF%E4%BF%9D%E9%99%A9</t>
@@ -1199,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E5%88%A9%E9%87%91%E8%9E%8D</t>
@@ -1211,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>大都會人壽保險</t>
+    <t>大都会人寿保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>日本生命保險</t>
+    <t>日本生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%9F%E5%91%BD%E4%BF%9D%E9%99%A9</t>
@@ -1229,25 +1217,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%AF%A1%E5%A9%A6</t>
   </si>
   <si>
-    <t>蘇格蘭寡婦</t>
+    <t>苏格兰寡妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E4%BA%BA%E5%A3%BD</t>
   </si>
   <si>
-    <t>標準人壽</t>
+    <t>标准人寿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>住友生命保險</t>
+    <t>住友生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%98%8E%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>永明金融集團股份</t>
+    <t>永明金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BA%B7%E4%BA%BA%E5%AF%BF</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
@@ -4059,7 +4047,7 @@
         <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4085,10 +4073,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4114,10 +4102,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4143,10 +4131,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4172,10 +4160,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4201,10 +4189,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4230,10 +4218,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4259,10 +4247,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4288,10 +4276,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4317,10 +4305,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4346,10 +4334,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4375,10 +4363,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4404,10 +4392,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4462,10 +4450,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4491,10 +4479,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4520,10 +4508,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4549,10 +4537,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4578,10 +4566,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4607,10 +4595,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4636,10 +4624,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4665,10 +4653,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -4694,10 +4682,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -4723,10 +4711,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4752,10 +4740,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4781,10 +4769,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4810,10 +4798,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>28</v>
@@ -4839,10 +4827,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4868,10 +4856,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4897,10 +4885,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4926,10 +4914,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4955,10 +4943,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4984,10 +4972,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5013,10 +5001,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5071,10 +5059,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5100,10 +5088,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5129,10 +5117,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5187,10 +5175,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5216,10 +5204,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5245,10 +5233,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5274,10 +5262,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5303,10 +5291,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5332,10 +5320,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5361,10 +5349,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5390,10 +5378,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5419,10 +5407,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5448,10 +5436,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" t="s">
         <v>201</v>
-      </c>
-      <c r="F131" t="s">
-        <v>202</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -5477,10 +5465,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5506,10 +5494,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5535,10 +5523,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5564,10 +5552,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5593,10 +5581,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5622,10 +5610,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5651,10 +5639,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5680,10 +5668,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5709,10 +5697,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5738,10 +5726,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5767,10 +5755,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5796,10 +5784,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5825,10 +5813,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5854,10 +5842,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5883,10 +5871,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5912,10 +5900,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5941,10 +5929,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5970,10 +5958,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5999,10 +5987,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>202</v>
+      </c>
+      <c r="F150" t="s">
         <v>203</v>
-      </c>
-      <c r="F150" t="s">
-        <v>204</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6028,10 +6016,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6057,10 +6045,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6086,10 +6074,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6115,10 +6103,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6144,10 +6132,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6173,10 +6161,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6202,10 +6190,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6231,10 +6219,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6260,10 +6248,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6289,10 +6277,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6318,10 +6306,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6347,10 +6335,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6376,10 +6364,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6405,10 +6393,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6434,10 +6422,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -6463,10 +6451,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6492,10 +6480,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6521,10 +6509,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6550,10 +6538,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>220</v>
+      </c>
+      <c r="F169" t="s">
         <v>221</v>
-      </c>
-      <c r="F169" t="s">
-        <v>222</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6579,10 +6567,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6608,10 +6596,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6637,10 +6625,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>6</v>
@@ -6666,10 +6654,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6695,10 +6683,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6724,10 +6712,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6753,10 +6741,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6811,10 +6799,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6840,10 +6828,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6869,10 +6857,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6898,10 +6886,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6927,10 +6915,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6956,10 +6944,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6985,10 +6973,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7014,10 +7002,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7043,10 +7031,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7072,10 +7060,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7101,10 +7089,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7130,10 +7118,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7159,10 +7147,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7188,10 +7176,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7217,10 +7205,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7246,10 +7234,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>186</v>
+      </c>
+      <c r="F193" t="s">
         <v>187</v>
-      </c>
-      <c r="F193" t="s">
-        <v>188</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7275,10 +7263,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7304,10 +7292,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7333,10 +7321,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7362,10 +7350,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7391,10 +7379,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7420,10 +7408,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7449,10 +7437,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7478,10 +7466,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>170</v>
+      </c>
+      <c r="F201" t="s">
         <v>171</v>
-      </c>
-      <c r="F201" t="s">
-        <v>172</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7507,10 +7495,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7536,10 +7524,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7565,10 +7553,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7594,10 +7582,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7623,10 +7611,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7652,10 +7640,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7681,10 +7669,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7710,10 +7698,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7739,10 +7727,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7768,10 +7756,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7797,10 +7785,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7826,10 +7814,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7855,10 +7843,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7884,10 +7872,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7913,10 +7901,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7942,10 +7930,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7971,10 +7959,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8000,10 +7988,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8029,10 +8017,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8058,10 +8046,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8087,10 +8075,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8116,10 +8104,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -8145,10 +8133,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8174,10 +8162,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8203,10 +8191,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
         <v>13</v>
@@ -8232,10 +8220,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
